--- a/UniverseTable.xlsx
+++ b/UniverseTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U093799\Documents\GitHub\IndexRebalancing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31752B94-017B-4ACC-A33C-92E9CD1EE0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4608A8-F2C0-4080-9802-16A6F4F0FAAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23235" yWindow="1140" windowWidth="15660" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23235" yWindow="1995" windowWidth="15375" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
   <si>
     <t>Ticker</t>
   </si>
@@ -38,6 +38,597 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Unipol Gruppo SpA</t>
+  </si>
+  <si>
+    <t>Terna - Rete Elettrica Nazionale</t>
+  </si>
+  <si>
+    <t>Tenaris SA</t>
+  </si>
+  <si>
+    <t>STMicroelectronics NV</t>
+  </si>
+  <si>
+    <t>Snam SpA</t>
+  </si>
+  <si>
+    <t>Poste Italiane SpA</t>
+  </si>
+  <si>
+    <t>Prysmian SpA</t>
+  </si>
+  <si>
+    <t>Pirelli &amp; C SpA</t>
+  </si>
+  <si>
+    <t>Nexi SpA</t>
+  </si>
+  <si>
+    <t>Moncler SpA</t>
+  </si>
+  <si>
+    <t>Intesa Sanpaolo SpA</t>
+  </si>
+  <si>
+    <t>Interpump Group SpA</t>
+  </si>
+  <si>
+    <t>Italgas SpA</t>
+  </si>
+  <si>
+    <t>Hera SpA</t>
+  </si>
+  <si>
+    <t>Assicurazioni Generali SpA</t>
+  </si>
+  <si>
+    <t>FinecoBank Banca Fineco SpA</t>
+  </si>
+  <si>
+    <t>EXOR NV</t>
+  </si>
+  <si>
+    <t>Eni SpA</t>
+  </si>
+  <si>
+    <t>Enel SpA</t>
+  </si>
+  <si>
+    <t>Banca Mediolanum SpA</t>
+  </si>
+  <si>
+    <t>Banca Generali SpA</t>
+  </si>
+  <si>
+    <t>Banco BPM SpA</t>
+  </si>
+  <si>
+    <t>Azimut Holding SpA</t>
+  </si>
+  <si>
+    <t>Atlantia SpA</t>
+  </si>
+  <si>
+    <t>Amplifon SpA</t>
+  </si>
+  <si>
+    <t>A2A SpA</t>
+  </si>
+  <si>
+    <t>UNI IM Equity</t>
+  </si>
+  <si>
+    <t>UCG IM Equity</t>
+  </si>
+  <si>
+    <t>TRN IM Equity</t>
+  </si>
+  <si>
+    <t>TIT IM Equity</t>
+  </si>
+  <si>
+    <t>TEN IM Equity</t>
+  </si>
+  <si>
+    <t>STM IM Equity</t>
+  </si>
+  <si>
+    <t>SRG IM Equity</t>
+  </si>
+  <si>
+    <t>SPM IM Equity</t>
+  </si>
+  <si>
+    <t>REC IM Equity</t>
+  </si>
+  <si>
+    <t>PST IM Equity</t>
+  </si>
+  <si>
+    <t>PRY IM Equity</t>
+  </si>
+  <si>
+    <t>PIRC IM Equity</t>
+  </si>
+  <si>
+    <t>NEXI IM Equity</t>
+  </si>
+  <si>
+    <t>MONC IM Equity</t>
+  </si>
+  <si>
+    <t>MB IM Equity</t>
+  </si>
+  <si>
+    <t>LDO IM Equity</t>
+  </si>
+  <si>
+    <t>ISP IM Equity</t>
+  </si>
+  <si>
+    <t>IP IM Equity</t>
+  </si>
+  <si>
+    <t>INW IM Equity</t>
+  </si>
+  <si>
+    <t>IG IM Equity</t>
+  </si>
+  <si>
+    <t>HER IM Equity</t>
+  </si>
+  <si>
+    <t>G IM Equity</t>
+  </si>
+  <si>
+    <t>FBK IM Equity</t>
+  </si>
+  <si>
+    <t>EXO IM Equity</t>
+  </si>
+  <si>
+    <t>ENI IM Equity</t>
+  </si>
+  <si>
+    <t>ENEL IM Equity</t>
+  </si>
+  <si>
+    <t>DIA IM Equity</t>
+  </si>
+  <si>
+    <t>CPR IM Equity</t>
+  </si>
+  <si>
+    <t>BZU IM Equity</t>
+  </si>
+  <si>
+    <t>BPE IM Equity</t>
+  </si>
+  <si>
+    <t>BMED IM Equity</t>
+  </si>
+  <si>
+    <t>BGN IM Equity</t>
+  </si>
+  <si>
+    <t>BAMI IM Equity</t>
+  </si>
+  <si>
+    <t>AZM IM Equity</t>
+  </si>
+  <si>
+    <t>ATL IM Equity</t>
+  </si>
+  <si>
+    <t>AMP IM Equity</t>
+  </si>
+  <si>
+    <t>A2A IM Equity</t>
+  </si>
+  <si>
+    <t>Reply SpA</t>
+  </si>
+  <si>
+    <t>De' Longhi SpA</t>
+  </si>
+  <si>
+    <t>Brunello Cucinelli SpA</t>
+  </si>
+  <si>
+    <t>ERG SpA</t>
+  </si>
+  <si>
+    <t>Iren SpA</t>
+  </si>
+  <si>
+    <t>Brembo SpA</t>
+  </si>
+  <si>
+    <t>Banca Popolare di Sondrio SCPA</t>
+  </si>
+  <si>
+    <t>Sesa SpA</t>
+  </si>
+  <si>
+    <t>BFF Bank SpA</t>
+  </si>
+  <si>
+    <t>Salvatore Ferragamo SpA</t>
+  </si>
+  <si>
+    <t>Anima Holding SpA</t>
+  </si>
+  <si>
+    <t>Technogym SpA</t>
+  </si>
+  <si>
+    <t>Carel Industries SpA</t>
+  </si>
+  <si>
+    <t>Enav SpA</t>
+  </si>
+  <si>
+    <t>Unieuro SpA</t>
+  </si>
+  <si>
+    <t>UnipolSai Assicurazioni SpA</t>
+  </si>
+  <si>
+    <t>Tamburi Investment Partners SpA</t>
+  </si>
+  <si>
+    <t>Falck Renewables SpA</t>
+  </si>
+  <si>
+    <t>Seco SpA</t>
+  </si>
+  <si>
+    <t>ACEA SpA</t>
+  </si>
+  <si>
+    <t>GVS SpA</t>
+  </si>
+  <si>
+    <t>SOL SpA</t>
+  </si>
+  <si>
+    <t>Mediaset NV</t>
+  </si>
+  <si>
+    <t>Gruppo MutuiOnline SpA</t>
+  </si>
+  <si>
+    <t>MARR SpA</t>
+  </si>
+  <si>
+    <t>El.En. SpA</t>
+  </si>
+  <si>
+    <t>Maire Tecnimont SpA</t>
+  </si>
+  <si>
+    <t>Sabaf SpA</t>
+  </si>
+  <si>
+    <t>Zignago Vetro SpA</t>
+  </si>
+  <si>
+    <t>RAI Way SpA</t>
+  </si>
+  <si>
+    <t>doValue SpA</t>
+  </si>
+  <si>
+    <t>Piaggio &amp; C SpA</t>
+  </si>
+  <si>
+    <t>Seri Industrial SpA</t>
+  </si>
+  <si>
+    <t>Tod's SpA</t>
+  </si>
+  <si>
+    <t>Digital Bros SpA</t>
+  </si>
+  <si>
+    <t>Banca IFIS SpA</t>
+  </si>
+  <si>
+    <t>Esprinet SpA</t>
+  </si>
+  <si>
+    <t>Wiit SpA</t>
+  </si>
+  <si>
+    <t>Cementir Holding NV</t>
+  </si>
+  <si>
+    <t>Eurotech SpA</t>
+  </si>
+  <si>
+    <t>Cerved Group SpA</t>
+  </si>
+  <si>
+    <t>Saras SpA</t>
+  </si>
+  <si>
+    <t>Biesse SpA</t>
+  </si>
+  <si>
+    <t>Fincantieri SpA</t>
+  </si>
+  <si>
+    <t>Juventus Football Club SpA</t>
+  </si>
+  <si>
+    <t>Datalogic SpA</t>
+  </si>
+  <si>
+    <t>Banca Sistema SpA</t>
+  </si>
+  <si>
+    <t>Tiscali SpA</t>
+  </si>
+  <si>
+    <t>Fiera Milano SpA</t>
+  </si>
+  <si>
+    <t>La Doria SpA</t>
+  </si>
+  <si>
+    <t>Garofalo Health Care SpA</t>
+  </si>
+  <si>
+    <t>Societa Cattolica Di Assicurazione SPA</t>
+  </si>
+  <si>
+    <t>Alerion Cleanpower SpA</t>
+  </si>
+  <si>
+    <t>Risanamento SpA</t>
+  </si>
+  <si>
+    <t>REY IM Equity</t>
+  </si>
+  <si>
+    <t>DLG IM Equity</t>
+  </si>
+  <si>
+    <t>BC IM Equity</t>
+  </si>
+  <si>
+    <t>ERG IM Equity</t>
+  </si>
+  <si>
+    <t>IRE IM Equity</t>
+  </si>
+  <si>
+    <t>BRE IM Equity</t>
+  </si>
+  <si>
+    <t>OVS IM Equity</t>
+  </si>
+  <si>
+    <t>BPSO IM Equity</t>
+  </si>
+  <si>
+    <t>SES IM Equity</t>
+  </si>
+  <si>
+    <t>BFF IM Equity</t>
+  </si>
+  <si>
+    <t>SFER IM Equity</t>
+  </si>
+  <si>
+    <t>AGL IM Equity</t>
+  </si>
+  <si>
+    <t>ANIM IM Equity</t>
+  </si>
+  <si>
+    <t>TGYM IM Equity</t>
+  </si>
+  <si>
+    <t>CRL IM Equity</t>
+  </si>
+  <si>
+    <t>ENAV IM Equity</t>
+  </si>
+  <si>
+    <t>UNIR IM Equity</t>
+  </si>
+  <si>
+    <t>US IM Equity</t>
+  </si>
+  <si>
+    <t>TIP IM Equity</t>
+  </si>
+  <si>
+    <t>FKR IM Equity</t>
+  </si>
+  <si>
+    <t>IOT IM Equity</t>
+  </si>
+  <si>
+    <t>SFL IM Equity</t>
+  </si>
+  <si>
+    <t>ECNL IM Equity</t>
+  </si>
+  <si>
+    <t>FILA IM Equity</t>
+  </si>
+  <si>
+    <t>ILTY IM Equity</t>
+  </si>
+  <si>
+    <t>ACE IM Equity</t>
+  </si>
+  <si>
+    <t>GVS IM Equity</t>
+  </si>
+  <si>
+    <t>SOL IM Equity</t>
+  </si>
+  <si>
+    <t>TNXT IM Equity</t>
+  </si>
+  <si>
+    <t>MS IM Equity</t>
+  </si>
+  <si>
+    <t>IGD IM Equity</t>
+  </si>
+  <si>
+    <t>MN IM Equity</t>
+  </si>
+  <si>
+    <t>MOL IM Equity</t>
+  </si>
+  <si>
+    <t>WBD IM Equity</t>
+  </si>
+  <si>
+    <t>PHN IM Equity</t>
+  </si>
+  <si>
+    <t>MARR IM Equity</t>
+  </si>
+  <si>
+    <t>RM IM Equity</t>
+  </si>
+  <si>
+    <t>ELN IM Equity</t>
+  </si>
+  <si>
+    <t>MT IM Equity</t>
+  </si>
+  <si>
+    <t>SAB IM Equity</t>
+  </si>
+  <si>
+    <t>AVIO IM Equity</t>
+  </si>
+  <si>
+    <t>ZV IM Equity</t>
+  </si>
+  <si>
+    <t>RWAY IM Equity</t>
+  </si>
+  <si>
+    <t>CE IM Equity</t>
+  </si>
+  <si>
+    <t>DOV IM Equity</t>
+  </si>
+  <si>
+    <t>PIA IM Equity</t>
+  </si>
+  <si>
+    <t>SERI IM Equity</t>
+  </si>
+  <si>
+    <t>SL IM Equity</t>
+  </si>
+  <si>
+    <t>FF IM Equity</t>
+  </si>
+  <si>
+    <t>TOD IM Equity</t>
+  </si>
+  <si>
+    <t>DIB IM Equity</t>
+  </si>
+  <si>
+    <t>ITM IM Equity</t>
+  </si>
+  <si>
+    <t>IF IM Equity</t>
+  </si>
+  <si>
+    <t>PRT IM Equity</t>
+  </si>
+  <si>
+    <t>WIIT IM Equity</t>
+  </si>
+  <si>
+    <t>CEM IM Equity</t>
+  </si>
+  <si>
+    <t>ETH IM Equity</t>
+  </si>
+  <si>
+    <t>CERV IM Equity</t>
+  </si>
+  <si>
+    <t>SRS IM Equity</t>
+  </si>
+  <si>
+    <t>BSS IM Equity</t>
+  </si>
+  <si>
+    <t>AV IM Equity</t>
+  </si>
+  <si>
+    <t>CIR IM Equity</t>
+  </si>
+  <si>
+    <t>FCT IM Equity</t>
+  </si>
+  <si>
+    <t>JUVE IM Equity</t>
+  </si>
+  <si>
+    <t>DAN IM Equity</t>
+  </si>
+  <si>
+    <t>DAL IM Equity</t>
+  </si>
+  <si>
+    <t>SCF IM Equity</t>
+  </si>
+  <si>
+    <t>BMPS IM Equity</t>
+  </si>
+  <si>
+    <t>BST IM Equity</t>
+  </si>
+  <si>
+    <t>ASC IM Equity</t>
+  </si>
+  <si>
+    <t>TIS IM Equity</t>
+  </si>
+  <si>
+    <t>FM IM Equity</t>
+  </si>
+  <si>
+    <t>LD IM Equity</t>
+  </si>
+  <si>
+    <t>GHC IM Equity</t>
+  </si>
+  <si>
+    <t>CASS IM Equity</t>
+  </si>
+  <si>
+    <t>BFG IM Equity</t>
+  </si>
+  <si>
+    <t>ARN IM Equity</t>
+  </si>
+  <si>
+    <t>RN IM Equity</t>
+  </si>
+  <si>
+    <t>CRG IM Equity</t>
+  </si>
+  <si>
+    <t>CALT IM Equity</t>
+  </si>
+  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -47,250 +638,733 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Unipol Gruppo SpA</t>
-  </si>
-  <si>
-    <t>UniCredit SpA COMMON</t>
-  </si>
-  <si>
-    <t>Terna - Rete Elettrica Nazionale</t>
-  </si>
-  <si>
-    <t>Telecom Italia SpA/Milano Common Shares</t>
-  </si>
-  <si>
-    <t>Tenaris SA</t>
-  </si>
-  <si>
-    <t>STMicroelectronics NV</t>
-  </si>
-  <si>
-    <t>Stellantis NV Common Shares</t>
-  </si>
-  <si>
-    <t>Snam SpA</t>
-  </si>
-  <si>
-    <t>Saipem SpA COMMON</t>
-  </si>
-  <si>
-    <t>Recordati Industria Chimica e Farmaceutica SpA COMMON</t>
+    <t>STLA IM Equity</t>
+  </si>
+  <si>
+    <t>Stellantis NV</t>
+  </si>
+  <si>
+    <t>RACE IM Equity</t>
   </si>
   <si>
     <t>Ferrari NV</t>
   </si>
   <si>
-    <t>Poste Italiane SpA</t>
-  </si>
-  <si>
-    <t>Prysmian SpA</t>
-  </si>
-  <si>
-    <t>Pirelli &amp; C SpA</t>
-  </si>
-  <si>
-    <t>Nexi SpA</t>
-  </si>
-  <si>
-    <t>Moncler SpA</t>
-  </si>
-  <si>
-    <t>Mediobanca Banca di Credito Finanziario SpA</t>
-  </si>
-  <si>
-    <t>Leonardo SpA Ordinary Shares</t>
-  </si>
-  <si>
-    <t>Intesa Sanpaolo SpA</t>
-  </si>
-  <si>
-    <t>Interpump Group SpA</t>
-  </si>
-  <si>
-    <t>Infrastrutture Wireless Italiane SpA Ordinary Shares</t>
-  </si>
-  <si>
-    <t>Italgas SpA</t>
-  </si>
-  <si>
-    <t>Hera SpA</t>
-  </si>
-  <si>
-    <t>Assicurazioni Generali SpA</t>
-  </si>
-  <si>
-    <t>FinecoBank Banca Fineco SpA</t>
-  </si>
-  <si>
-    <t>EXOR NV</t>
-  </si>
-  <si>
-    <t>Euro Spot</t>
-  </si>
-  <si>
-    <t>Eni SpA</t>
-  </si>
-  <si>
-    <t>Enel SpA</t>
-  </si>
-  <si>
-    <t>DiaSorin SpA Ordinary Shares</t>
-  </si>
-  <si>
-    <t>Davide Campari-Milano NV Ordinary Shares</t>
+    <t>UniCredit SpA</t>
+  </si>
+  <si>
+    <t>CNHI IM Equity</t>
   </si>
   <si>
     <t>CNH Industrial NV</t>
   </si>
   <si>
-    <t>Buzzi Unicem SpA COMMON</t>
-  </si>
-  <si>
-    <t>BPER Banca Ordinary</t>
-  </si>
-  <si>
-    <t>Banca Mediolanum SpA</t>
-  </si>
-  <si>
-    <t>Banca Generali SpA</t>
-  </si>
-  <si>
-    <t>Banco BPM SpA</t>
-  </si>
-  <si>
-    <t>Azimut Holding SpA</t>
-  </si>
-  <si>
-    <t>Atlantia SpA</t>
-  </si>
-  <si>
-    <t>Amplifon SpA</t>
-  </si>
-  <si>
-    <t>A2A SpA</t>
-  </si>
-  <si>
-    <t>UNI IM Equity</t>
-  </si>
-  <si>
-    <t>UCG IM Equity</t>
-  </si>
-  <si>
-    <t>TRN IM Equity</t>
-  </si>
-  <si>
-    <t>TIT IM Equity</t>
-  </si>
-  <si>
-    <t>TEN IM Equity</t>
-  </si>
-  <si>
-    <t>STM IM Equity</t>
-  </si>
-  <si>
-    <t>STLA US Equity</t>
-  </si>
-  <si>
-    <t>SRG IM Equity</t>
-  </si>
-  <si>
-    <t>SPM IM Equity</t>
-  </si>
-  <si>
-    <t>REC IM Equity</t>
-  </si>
-  <si>
-    <t>RACE IM Equity</t>
-  </si>
-  <si>
-    <t>PST IM Equity</t>
-  </si>
-  <si>
-    <t>PRY IM Equity</t>
-  </si>
-  <si>
-    <t>PIRC IM Equity</t>
-  </si>
-  <si>
-    <t>NEXI IM Equity</t>
-  </si>
-  <si>
-    <t>MONC IM Equity</t>
-  </si>
-  <si>
-    <t>MB IM Equity</t>
-  </si>
-  <si>
-    <t>LDO IM Equity</t>
-  </si>
-  <si>
-    <t>ISP IM Equity</t>
-  </si>
-  <si>
-    <t>IP IM Equity</t>
-  </si>
-  <si>
-    <t>INW IM Equity</t>
-  </si>
-  <si>
-    <t>IG IM Equity</t>
-  </si>
-  <si>
-    <t>HER IM Equity</t>
-  </si>
-  <si>
-    <t>G IM Equity</t>
-  </si>
-  <si>
-    <t>FBK IM Equity</t>
-  </si>
-  <si>
-    <t>EXO IM Equity</t>
-  </si>
-  <si>
-    <t>EUR Curncy Equity</t>
-  </si>
-  <si>
-    <t>ENI IM Equity</t>
-  </si>
-  <si>
-    <t>ENEL IM Equity</t>
-  </si>
-  <si>
-    <t>DIA IM Equity</t>
-  </si>
-  <si>
-    <t>CPR IM Equity</t>
-  </si>
-  <si>
-    <t>CNHI IM Equity</t>
-  </si>
-  <si>
-    <t>BZU IM Equity</t>
-  </si>
-  <si>
-    <t>BPE IM Equity</t>
-  </si>
-  <si>
-    <t>BMED IM Equity</t>
-  </si>
-  <si>
-    <t>BGN IM Equity</t>
-  </si>
-  <si>
-    <t>BAMI IM Equity</t>
-  </si>
-  <si>
-    <t>AZM IM Equity</t>
-  </si>
-  <si>
-    <t>ATL IM Equity</t>
-  </si>
-  <si>
-    <t>AMP IM Equity</t>
-  </si>
-  <si>
-    <t>A2A IM Equity</t>
+    <t>Mediobanca Banca di Credito Finanziario</t>
+  </si>
+  <si>
+    <t>Davide Campari-Milano NV</t>
+  </si>
+  <si>
+    <t>Recordati Industria Chimica e Farmaceuti</t>
+  </si>
+  <si>
+    <t>DiaSorin SpA</t>
+  </si>
+  <si>
+    <t>Telecom Italia SpA/Milano</t>
+  </si>
+  <si>
+    <t>Infrastrutture Wireless Italiane SpA</t>
+  </si>
+  <si>
+    <t>Leonardo SpA</t>
+  </si>
+  <si>
+    <t>BPER Banca</t>
+  </si>
+  <si>
+    <t>Buzzi Unicem SpA</t>
+  </si>
+  <si>
+    <t>Autogrill SpA</t>
+  </si>
+  <si>
+    <t>Saipem SpA</t>
+  </si>
+  <si>
+    <t>Illimity Bank SpA</t>
+  </si>
+  <si>
+    <t>Tinexta Spa</t>
+  </si>
+  <si>
+    <t>Webuild SpA</t>
+  </si>
+  <si>
+    <t>OVS SpA</t>
+  </si>
+  <si>
+    <t>Credito Emiliano SpA</t>
+  </si>
+  <si>
+    <t>Sanlorenzo SpA/Ameglia</t>
+  </si>
+  <si>
+    <t>Italmobiliare SpA</t>
+  </si>
+  <si>
+    <t>Safilo Group SpA</t>
+  </si>
+  <si>
+    <t>Antares Vision SpA</t>
+  </si>
+  <si>
+    <t>CIR SpA-Compagnie Industriali</t>
+  </si>
+  <si>
+    <t>Danieli &amp; C Officine Meccaniche SpA</t>
+  </si>
+  <si>
+    <t>Aquafil SpA</t>
+  </si>
+  <si>
+    <t>Fila SpA</t>
+  </si>
+  <si>
+    <t>Salcef SpA</t>
+  </si>
+  <si>
+    <t>PVN IM Equity</t>
+  </si>
+  <si>
+    <t>Piovan SpA</t>
+  </si>
+  <si>
+    <t>Banca Monte dei Paschi di Siena SpA</t>
+  </si>
+  <si>
+    <t>Arnoldo Mondadori Editore SpA</t>
+  </si>
+  <si>
+    <t>Immobiliare Grande Distribuzione SIIQ Sp</t>
+  </si>
+  <si>
+    <t>Ascopiave SpA</t>
+  </si>
+  <si>
+    <t>Pharmanutra SpA</t>
+  </si>
+  <si>
+    <t>Reno de Medici SpA</t>
+  </si>
+  <si>
+    <t>Avio SpA</t>
+  </si>
+  <si>
+    <t>BEST IM Equity</t>
+  </si>
+  <si>
+    <t>Be Shaping the Future SpA</t>
+  </si>
+  <si>
+    <t>LUVE IM Equity</t>
+  </si>
+  <si>
+    <t>LU-VE SpA</t>
+  </si>
+  <si>
+    <t>PHIL IM Equity</t>
+  </si>
+  <si>
+    <t>Philogen SpA</t>
+  </si>
+  <si>
+    <t>BF SpA</t>
+  </si>
+  <si>
+    <t>SG IM Equity</t>
+  </si>
+  <si>
+    <t>SAES Getters SpA</t>
+  </si>
+  <si>
+    <t>Fine Foods &amp; Pharmaceuticals NTM</t>
+  </si>
+  <si>
+    <t>EDNR IM Equity</t>
+  </si>
+  <si>
+    <t>Edison SpA</t>
+  </si>
+  <si>
+    <t>CAI IM Equity</t>
+  </si>
+  <si>
+    <t>Cairo Communication SpA</t>
+  </si>
+  <si>
+    <t>CRES IM Equity</t>
+  </si>
+  <si>
+    <t>COIMA RES SpA</t>
+  </si>
+  <si>
+    <t>CMB IM Equity</t>
+  </si>
+  <si>
+    <t>Cembre SpA</t>
+  </si>
+  <si>
+    <t>BAN IM Equity</t>
+  </si>
+  <si>
+    <t>BasicNet SpA</t>
+  </si>
+  <si>
+    <t>ABT IM Equity</t>
+  </si>
+  <si>
+    <t>Abitare In SpA</t>
+  </si>
+  <si>
+    <t>OJM IM Equity</t>
+  </si>
+  <si>
+    <t>Openjobmetis Spa agenzia per il lavoro</t>
+  </si>
+  <si>
+    <t>EM IM Equity</t>
+  </si>
+  <si>
+    <t>Emak SpA</t>
+  </si>
+  <si>
+    <t>ADB IM Equity</t>
+  </si>
+  <si>
+    <t>Aeroporto Guglielmo Marconi Di Bologna S</t>
+  </si>
+  <si>
+    <t>DEA IM Equity</t>
+  </si>
+  <si>
+    <t>DeA Capital SpA</t>
+  </si>
+  <si>
+    <t>ORS IM Equity</t>
+  </si>
+  <si>
+    <t>Orsero SpA</t>
+  </si>
+  <si>
+    <t>NWL IM Equity</t>
+  </si>
+  <si>
+    <t>Newlat Food SpA</t>
+  </si>
+  <si>
+    <t>TFI IM Equity</t>
+  </si>
+  <si>
+    <t>TREVI - Finanziaria Industriale SpA</t>
+  </si>
+  <si>
+    <t>GPI IM Equity</t>
+  </si>
+  <si>
+    <t>GPI SpA</t>
+  </si>
+  <si>
+    <t>RCS IM Equity</t>
+  </si>
+  <si>
+    <t>Rizzoli Corriere Della Sera Mediagroup S</t>
+  </si>
+  <si>
+    <t>Banca Carige SpA</t>
+  </si>
+  <si>
+    <t>DIS IM Equity</t>
+  </si>
+  <si>
+    <t>d'Amico International Shipping SA</t>
+  </si>
+  <si>
+    <t>PRI IM Equity</t>
+  </si>
+  <si>
+    <t>Prima Industrie SpA</t>
+  </si>
+  <si>
+    <t>ALK IM Equity</t>
+  </si>
+  <si>
+    <t>Alkemy SpA</t>
+  </si>
+  <si>
+    <t>GEO IM Equity</t>
+  </si>
+  <si>
+    <t>Geox SpA</t>
+  </si>
+  <si>
+    <t>IVS IM Equity</t>
+  </si>
+  <si>
+    <t>IVS Group SA</t>
+  </si>
+  <si>
+    <t>AEF IM Equity</t>
+  </si>
+  <si>
+    <t>Aeffe SpA</t>
+  </si>
+  <si>
+    <t>TXT IM Equity</t>
+  </si>
+  <si>
+    <t>TXT e-solutions SpA</t>
+  </si>
+  <si>
+    <t>IMS IM Equity</t>
+  </si>
+  <si>
+    <t>IMMSI SpA</t>
+  </si>
+  <si>
+    <t>FNM IM Equity</t>
+  </si>
+  <si>
+    <t>FNM SpA</t>
+  </si>
+  <si>
+    <t>IKG IM Equity</t>
+  </si>
+  <si>
+    <t>Intek Group SpA</t>
+  </si>
+  <si>
+    <t>EQUI IM Equity</t>
+  </si>
+  <si>
+    <t>Equita Group SpA</t>
+  </si>
+  <si>
+    <t>TISG IM Equity</t>
+  </si>
+  <si>
+    <t>Italian Sea Group SPA/The</t>
+  </si>
+  <si>
+    <t>PITE IM Equity</t>
+  </si>
+  <si>
+    <t>Piteco SpA</t>
+  </si>
+  <si>
+    <t>SIT IM Equity</t>
+  </si>
+  <si>
+    <t>SIT SpA</t>
+  </si>
+  <si>
+    <t>CELL IM Equity</t>
+  </si>
+  <si>
+    <t>Cellularline SpA</t>
+  </si>
+  <si>
+    <t>GE IM Equity</t>
+  </si>
+  <si>
+    <t>Gefran SpA</t>
+  </si>
+  <si>
+    <t>PRO IM Equity</t>
+  </si>
+  <si>
+    <t>Banca Profilo SpA</t>
+  </si>
+  <si>
+    <t>Caltagirone SpA</t>
+  </si>
+  <si>
+    <t>BEC IM Equity</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers SpA</t>
+  </si>
+  <si>
+    <t>SO IM Equity</t>
+  </si>
+  <si>
+    <t>Sogefi SpA</t>
+  </si>
+  <si>
+    <t>ELC IM Equity</t>
+  </si>
+  <si>
+    <t>Elica SpA</t>
+  </si>
+  <si>
+    <t>SOM IM Equity</t>
+  </si>
+  <si>
+    <t>Somec SpA</t>
+  </si>
+  <si>
+    <t>XPR IM Equity</t>
+  </si>
+  <si>
+    <t>Exprivia SpA</t>
+  </si>
+  <si>
+    <t>GAB IM Equity</t>
+  </si>
+  <si>
+    <t>Gabetti Property Solutions SpA</t>
+  </si>
+  <si>
+    <t>TAS IM Equity</t>
+  </si>
+  <si>
+    <t>Tas Tecnologia Avanzata dei Sistemi SpA</t>
+  </si>
+  <si>
+    <t>INDB IM Equity</t>
+  </si>
+  <si>
+    <t>Indel B SpA</t>
+  </si>
+  <si>
+    <t>LR IM Equity</t>
+  </si>
+  <si>
+    <t>Landi Renzo SpA</t>
+  </si>
+  <si>
+    <t>VLS IM Equity</t>
+  </si>
+  <si>
+    <t>Valsoia SpA</t>
+  </si>
+  <si>
+    <t>RST IM Equity</t>
+  </si>
+  <si>
+    <t>Restart SIIQ SpA</t>
+  </si>
+  <si>
+    <t>MTV IM Equity</t>
+  </si>
+  <si>
+    <t>Mondo TV SpA</t>
+  </si>
+  <si>
+    <t>IRC IM Equity</t>
+  </si>
+  <si>
+    <t>Irce SpA</t>
+  </si>
+  <si>
+    <t>CED IM Equity</t>
+  </si>
+  <si>
+    <t>Caltagirone Editore SpA</t>
+  </si>
+  <si>
+    <t>TES IM Equity</t>
+  </si>
+  <si>
+    <t>Tesmec SpA</t>
+  </si>
+  <si>
+    <t>AUTME IM Equity</t>
+  </si>
+  <si>
+    <t>Autostrade Meridionali SpA</t>
+  </si>
+  <si>
+    <t>S24 IM Equity</t>
+  </si>
+  <si>
+    <t>Il Sole 24 Ore SpA</t>
+  </si>
+  <si>
+    <t>ASR IM Equity</t>
+  </si>
+  <si>
+    <t>AS Roma SpA</t>
+  </si>
+  <si>
+    <t>SSL IM Equity</t>
+  </si>
+  <si>
+    <t>Societa Sportiva Lazio SpA</t>
+  </si>
+  <si>
+    <t>IEG IM Equity</t>
+  </si>
+  <si>
+    <t>Italian Exhibition Group SpA</t>
+  </si>
+  <si>
+    <t>BIA IM Equity</t>
+  </si>
+  <si>
+    <t>Bialetti Industrie SpA</t>
+  </si>
+  <si>
+    <t>SRI IM Equity</t>
+  </si>
+  <si>
+    <t>Servizi Italia SpA</t>
+  </si>
+  <si>
+    <t>PQ IM Equity</t>
+  </si>
+  <si>
+    <t>Piquadro SpA</t>
+  </si>
+  <si>
+    <t>BRI IM Equity</t>
+  </si>
+  <si>
+    <t>Brioschi Sviluppo Immobiliare SpA</t>
+  </si>
+  <si>
+    <t>NDT IM Equity</t>
+  </si>
+  <si>
+    <t>Neodecortech Spa</t>
+  </si>
+  <si>
+    <t>BFE IM Equity</t>
+  </si>
+  <si>
+    <t>Banca Finnat Euramerica SpA</t>
+  </si>
+  <si>
+    <t>IGV IM Equity</t>
+  </si>
+  <si>
+    <t>I Grandi Viaggi SpA</t>
+  </si>
+  <si>
+    <t>BE IM Equity</t>
+  </si>
+  <si>
+    <t>Beghelli SpA</t>
+  </si>
+  <si>
+    <t>PINF IM Equity</t>
+  </si>
+  <si>
+    <t>Pininfarina SpA</t>
+  </si>
+  <si>
+    <t>GG IM Equity</t>
+  </si>
+  <si>
+    <t>Giglio Group SpA</t>
+  </si>
+  <si>
+    <t>TB IM Equity</t>
+  </si>
+  <si>
+    <t>Triboo Spa</t>
+  </si>
+  <si>
+    <t>RAT IM Equity</t>
+  </si>
+  <si>
+    <t>Ratti SpA</t>
+  </si>
+  <si>
+    <t>PLC IM Equity</t>
+  </si>
+  <si>
+    <t>PLC SpA</t>
+  </si>
+  <si>
+    <t>BO IM Equity</t>
+  </si>
+  <si>
+    <t>Borgosesia SpA</t>
+  </si>
+  <si>
+    <t>LVEN IM Equity</t>
+  </si>
+  <si>
+    <t>Lventure Group SpA</t>
+  </si>
+  <si>
+    <t>ATH IM Equity</t>
+  </si>
+  <si>
+    <t>Ambienthesis SpA</t>
+  </si>
+  <si>
+    <t>PRL IM Equity</t>
+  </si>
+  <si>
+    <t>Pierrel SpA</t>
+  </si>
+  <si>
+    <t>ENV IM Equity</t>
+  </si>
+  <si>
+    <t>Enervit SpA</t>
+  </si>
+  <si>
+    <t>GSP IM Equity</t>
+  </si>
+  <si>
+    <t>Gas Plus SpA</t>
+  </si>
+  <si>
+    <t>CLF IM Equity</t>
+  </si>
+  <si>
+    <t>Caleffi SpA/Viadana</t>
+  </si>
+  <si>
+    <t>CLI IM Equity</t>
+  </si>
+  <si>
+    <t>Centrale del Latte d'Italia</t>
+  </si>
+  <si>
+    <t>B IM Equity</t>
+  </si>
+  <si>
+    <t>Bastogi SpA</t>
+  </si>
+  <si>
+    <t>ALW IM Equity</t>
+  </si>
+  <si>
+    <t>AlgoWatt SpA</t>
+  </si>
+  <si>
+    <t>ITW IM Equity</t>
+  </si>
+  <si>
+    <t>IT Way SpA</t>
+  </si>
+  <si>
+    <t>ZUC IM Equity</t>
+  </si>
+  <si>
+    <t>Vincenzo Zucchi SpA</t>
+  </si>
+  <si>
+    <t>MON IM Equity</t>
+  </si>
+  <si>
+    <t>Monrif SpA</t>
+  </si>
+  <si>
+    <t>BIM IM Equity</t>
+  </si>
+  <si>
+    <t>Banca Intermobiliare SpA</t>
+  </si>
+  <si>
+    <t>CSP IM Equity</t>
+  </si>
+  <si>
+    <t>CSP International Fashion Group SpA</t>
+  </si>
+  <si>
+    <t>NR IM Equity</t>
+  </si>
+  <si>
+    <t>Nova Re SIIQ SpA</t>
+  </si>
+  <si>
+    <t>FDA IM Equity</t>
+  </si>
+  <si>
+    <t>Fidia SpA</t>
+  </si>
+  <si>
+    <t>EPR IM Equity</t>
+  </si>
+  <si>
+    <t>ePrice SpA</t>
+  </si>
+  <si>
+    <t>CLE IM Equity</t>
+  </si>
+  <si>
+    <t>Class Editori SpA</t>
+  </si>
+  <si>
+    <t>EUK IM Equity</t>
+  </si>
+  <si>
+    <t>Eukedos SpA</t>
+  </si>
+  <si>
+    <t>CNF IM Equity</t>
+  </si>
+  <si>
+    <t>Conafi SPA</t>
+  </si>
+  <si>
+    <t>SOF IM Equity</t>
+  </si>
+  <si>
+    <t>Softlab SpA</t>
+  </si>
+  <si>
+    <t>CIA IM Equity</t>
+  </si>
+  <si>
+    <t>Cia Immobiliare Azionaria</t>
+  </si>
+  <si>
+    <t>BIE IM Equity</t>
+  </si>
+  <si>
+    <t>Bioera SpA</t>
+  </si>
+  <si>
+    <t>NTW IM Equity</t>
+  </si>
+  <si>
+    <t>Netweek SpA</t>
+  </si>
+  <si>
+    <t>ROS IM Equity</t>
+  </si>
+  <si>
+    <t>Rosss SpA</t>
+  </si>
+  <si>
+    <t>FUL IM Equity</t>
+  </si>
+  <si>
+    <t>FULLSIX</t>
+  </si>
+  <si>
+    <t>TTT IM Equity</t>
+  </si>
+  <si>
+    <t>TitanMet SpA</t>
+  </si>
+  <si>
+    <t>EEMS IM Equity</t>
+  </si>
+  <si>
+    <t>EEMS Italia SpA</t>
+  </si>
+  <si>
+    <t>GEQ IM Equity</t>
+  </si>
+  <si>
+    <t>Gequity SpA</t>
   </si>
 </sst>
 </file>
@@ -789,10 +1863,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="26"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1173,19 +2246,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1196,285 +2265,285 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>834052</v>
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>10.826641</v>
       </c>
       <c r="D2">
-        <v>1546.742786</v>
+        <v>7766.0959249999996</v>
       </c>
       <c r="E2">
-        <v>9413</v>
+        <v>7.1269999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3769630</v>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>8.0428850000000001</v>
       </c>
       <c r="D3">
-        <v>2578.9996930000002</v>
+        <v>16589.706062000001</v>
       </c>
       <c r="E3">
-        <v>3930</v>
+        <v>2.4784999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2442301</v>
+        <v>203</v>
+      </c>
+      <c r="C4">
+        <v>7.141845</v>
       </c>
       <c r="D4">
-        <v>20420.843191</v>
+        <v>2020.7662989999999</v>
       </c>
       <c r="E4">
-        <v>433.9</v>
+        <v>18.068000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>18593893</v>
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>6.2309770000000002</v>
       </c>
       <c r="D5">
-        <v>2295.0658079999998</v>
+        <v>2509.8154669999999</v>
       </c>
       <c r="E5">
-        <v>3791.5</v>
+        <v>12.692</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>809668</v>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5.6821460000000004</v>
       </c>
       <c r="D6">
-        <v>4940.0380279999999</v>
+        <v>649.20764199999996</v>
       </c>
       <c r="E6">
-        <v>1590.2</v>
+        <v>44.744999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1125738</v>
+        <v>205</v>
+      </c>
+      <c r="C7">
+        <v>5.4022860000000001</v>
       </c>
       <c r="D7">
-        <v>19887.999421</v>
+        <v>121.45150599999999</v>
       </c>
       <c r="E7">
-        <v>343.85</v>
+        <v>227.4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3504045</v>
+        <v>206</v>
+      </c>
+      <c r="C8">
+        <v>4.9344320000000002</v>
       </c>
       <c r="D8">
-        <v>4100.7623130000002</v>
+        <v>2173.9282790000002</v>
       </c>
       <c r="E8">
-        <v>1654.2</v>
+        <v>11.603999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3860296</v>
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>4.800338</v>
       </c>
       <c r="D9">
-        <v>3705.8510670000001</v>
+        <v>1286.2021970000001</v>
       </c>
       <c r="E9">
-        <v>1664.2</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>960418</v>
+        <v>208</v>
+      </c>
+      <c r="C10">
+        <v>3.1588240000000001</v>
       </c>
       <c r="D10">
-        <v>2281.423331</v>
+        <v>983.18639800000005</v>
       </c>
       <c r="E10">
-        <v>2582</v>
+        <v>16.425000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>167648</v>
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>2.913475</v>
       </c>
       <c r="D11">
-        <v>1085.81809</v>
+        <v>214.74246500000001</v>
       </c>
       <c r="E11">
-        <v>4567</v>
+        <v>69.36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2">
-        <v>210599</v>
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>2.1733959999999999</v>
       </c>
       <c r="D12">
-        <v>13240.541976</v>
+        <v>2226.2147620000001</v>
       </c>
       <c r="E12">
-        <v>364.4</v>
+        <v>4.9909999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2">
-        <v>790454</v>
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>2.0527500000000001</v>
       </c>
       <c r="D13">
-        <v>1858.5863710000001</v>
+        <v>609.77690399999994</v>
       </c>
       <c r="E13">
-        <v>2366</v>
+        <v>17.21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2">
-        <v>456486</v>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1.856905</v>
       </c>
       <c r="D14">
-        <v>2743.5075000000002</v>
+        <v>1408.4633879999999</v>
       </c>
       <c r="E14">
-        <v>1502.5</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2">
-        <v>917105</v>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1.797947</v>
       </c>
       <c r="D15">
-        <v>2077.6112330000001</v>
+        <v>588.8297</v>
       </c>
       <c r="E15">
-        <v>1946</v>
+        <v>15.61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1021041</v>
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1.7523470000000001</v>
       </c>
       <c r="D16">
-        <v>633.16506000000004</v>
+        <v>263.25329499999998</v>
       </c>
       <c r="E16">
-        <v>6251</v>
+        <v>34.03</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2">
-        <v>372367</v>
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1.6983619999999999</v>
       </c>
       <c r="D17">
-        <v>1228.9583909999999</v>
+        <v>103.289624</v>
       </c>
       <c r="E17">
-        <v>2863</v>
+        <v>84.06</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1482,424 +2551,3467 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1204015</v>
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>1.6687240000000001</v>
       </c>
       <c r="D18">
-        <v>70776.967803000007</v>
+        <v>491.70051799999999</v>
       </c>
       <c r="E18">
-        <v>49.6</v>
+        <v>17.350000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2">
-        <v>693055</v>
+        <v>209</v>
+      </c>
+      <c r="C19">
+        <v>1.471606</v>
       </c>
       <c r="D19">
-        <v>3550.1529690000002</v>
+        <v>694.34984899999995</v>
       </c>
       <c r="E19">
-        <v>973.6</v>
+        <v>10.835000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2">
-        <v>28766847</v>
+        <v>210</v>
+      </c>
+      <c r="C20">
+        <v>1.2608619999999999</v>
       </c>
       <c r="D20">
-        <v>16926.641636</v>
+        <v>493.74929500000002</v>
       </c>
       <c r="E20">
-        <v>195.26</v>
+        <v>13.055</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2">
-        <v>139156</v>
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>1.1376729999999999</v>
       </c>
       <c r="D21">
-        <v>913.97108900000001</v>
+        <v>128.87480500000001</v>
       </c>
       <c r="E21">
-        <v>3481</v>
+        <v>45.13</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2">
-        <v>609699</v>
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>1.094087</v>
       </c>
       <c r="D22">
-        <v>27713.904423</v>
+        <v>455.85110900000001</v>
       </c>
       <c r="E22">
-        <v>113.48</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2">
-        <v>848217</v>
+        <v>211</v>
+      </c>
+      <c r="C23">
+        <v>1.0726709999999999</v>
       </c>
       <c r="D23">
-        <v>783.99463500000002</v>
+        <v>96.682078000000004</v>
       </c>
       <c r="E23">
-        <v>3772</v>
+        <v>56.72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1361733</v>
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>0.973248</v>
       </c>
       <c r="D24">
-        <v>446.71887900000002</v>
+        <v>80.250443000000004</v>
       </c>
       <c r="E24">
-        <v>6400</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2230298</v>
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>0.94303499999999996</v>
       </c>
       <c r="D25">
-        <v>1780.564785</v>
+        <v>466.93164300000001</v>
       </c>
       <c r="E25">
-        <v>1580.5</v>
+        <v>10.324999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1057364</v>
+        <v>212</v>
+      </c>
+      <c r="C26">
+        <v>0.83350100000000005</v>
       </c>
       <c r="D26">
-        <v>223.74409399999999</v>
+        <v>22.486035000000001</v>
       </c>
       <c r="E26">
-        <v>11635</v>
+        <v>189.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="2">
-        <v>179106</v>
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>0.82229300000000005</v>
       </c>
       <c r="D27">
-        <v>362.81869799999998</v>
+        <v>1508.3622339999999</v>
       </c>
       <c r="E27">
-        <v>7022</v>
+        <v>2.7869999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.78003999999999996</v>
       </c>
       <c r="D28">
-        <v>7630.4997620000004</v>
+        <v>22.529896000000001</v>
       </c>
       <c r="E28">
-        <v>282.25</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="2">
-        <v>4352065</v>
+        <v>213</v>
+      </c>
+      <c r="C29">
+        <v>0.71482599999999996</v>
       </c>
       <c r="D29">
-        <v>1420.4693649999999</v>
+        <v>10723.011155</v>
       </c>
       <c r="E29">
-        <v>1512.5</v>
+        <v>0.34079999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="2">
-        <v>13466549</v>
+        <v>214</v>
+      </c>
+      <c r="C30">
+        <v>0.69018199999999996</v>
       </c>
       <c r="D30">
-        <v>165.66222300000001</v>
+        <v>351.610454</v>
       </c>
       <c r="E30">
-        <v>12205</v>
+        <v>10.035</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2">
-        <v>38991</v>
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>0.64539500000000005</v>
       </c>
       <c r="D31">
-        <v>3223.4423670000001</v>
+        <v>121.975865</v>
       </c>
       <c r="E31">
-        <v>570.20000000000005</v>
+        <v>27.05</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="2">
-        <v>856170</v>
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>0.60148500000000005</v>
       </c>
       <c r="D32">
-        <v>5921.5410380000003</v>
+        <v>528.89</v>
       </c>
       <c r="E32">
-        <v>294.7</v>
+        <v>5.8140000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1704863</v>
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>0.55576499999999995</v>
       </c>
       <c r="D33">
-        <v>1042.5532000000001</v>
+        <v>785.30490399999996</v>
       </c>
       <c r="E33">
-        <v>1667.5</v>
+        <v>3.6179999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="2">
-        <v>161323</v>
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>0.55238500000000001</v>
       </c>
       <c r="D34">
-        <v>1196.2103139999999</v>
+        <v>1511.7526479999999</v>
       </c>
       <c r="E34">
-        <v>1340</v>
+        <v>1.8680000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1820931</v>
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>0.53123600000000004</v>
       </c>
       <c r="D35">
-        <v>3914.9972269999998</v>
+        <v>489.162869</v>
       </c>
       <c r="E35">
-        <v>407.7</v>
+        <v>5.5519999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="2">
-        <v>416364</v>
+        <v>215</v>
+      </c>
+      <c r="C36">
+        <v>0.510988</v>
       </c>
       <c r="D36">
-        <v>941.49642800000004</v>
+        <v>399.68169799999998</v>
       </c>
       <c r="E36">
-        <v>1548</v>
+        <v>6.5359999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="2">
-        <v>96803</v>
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0.47814400000000001</v>
       </c>
       <c r="D37">
-        <v>951.64885800000002</v>
+        <v>480.99384500000002</v>
       </c>
       <c r="E37">
-        <v>1426</v>
+        <v>5.0819999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2615527</v>
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>0.46507999999999999</v>
       </c>
       <c r="D38">
-        <v>134.543026</v>
+        <v>55.825887999999999</v>
       </c>
       <c r="E38">
-        <v>9776</v>
+        <v>42.59</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="2">
-        <v>211508</v>
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>0.43088700000000002</v>
       </c>
       <c r="D39">
-        <v>1158.4457190000001</v>
+        <v>240.115419</v>
       </c>
       <c r="E39">
-        <v>1110</v>
+        <v>9.1739999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="2">
-        <v>852617</v>
+        <v>66</v>
+      </c>
+      <c r="C40">
+        <v>0.417354</v>
       </c>
       <c r="D40">
-        <v>7522.0136469999998</v>
+        <v>70.463554000000002</v>
       </c>
       <c r="E40">
-        <v>165.05</v>
+        <v>30.28</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="2">
-        <v>223471</v>
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <v>0.40604800000000002</v>
       </c>
       <c r="D41">
-        <v>8366.0503420000005</v>
+        <v>33.32</v>
       </c>
       <c r="E41">
-        <v>146.63999999999999</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42">
+        <v>0.395314</v>
+      </c>
+      <c r="D42">
+        <v>1050.122239</v>
+      </c>
+      <c r="E42">
+        <v>1.9245000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>0.38217899999999999</v>
+      </c>
+      <c r="D43">
+        <v>65.91798</v>
+      </c>
+      <c r="E43">
+        <v>29.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44">
+        <v>0.37306099999999998</v>
+      </c>
+      <c r="D44">
+        <v>93.034085000000005</v>
+      </c>
+      <c r="E44">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45">
+        <v>0.34867999999999999</v>
+      </c>
+      <c r="D45">
+        <v>624.14443900000003</v>
+      </c>
+      <c r="E45">
+        <v>2.8559999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46">
+        <v>0.33619700000000002</v>
+      </c>
+      <c r="D46">
+        <v>145.16348500000001</v>
+      </c>
+      <c r="E46">
+        <v>11.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47">
+        <v>0.27669199999999999</v>
+      </c>
+      <c r="D47">
+        <v>387.11866800000001</v>
+      </c>
+      <c r="E47">
+        <v>3.6539999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48">
+        <v>0.27058700000000002</v>
+      </c>
+      <c r="D48">
+        <v>7.2501170000000004</v>
+      </c>
+      <c r="E48">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49">
+        <v>0.26760899999999999</v>
+      </c>
+      <c r="D49">
+        <v>184.00735399999999</v>
+      </c>
+      <c r="E49">
+        <v>7.4349999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50">
+        <v>0.255218</v>
+      </c>
+      <c r="D50">
+        <v>66.910267000000005</v>
+      </c>
+      <c r="E50">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51">
+        <v>0.251695</v>
+      </c>
+      <c r="D51">
+        <v>188.11977099999999</v>
+      </c>
+      <c r="E51">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52">
+        <v>0.240456</v>
+      </c>
+      <c r="D52">
+        <v>133.32749999999999</v>
+      </c>
+      <c r="E52">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53">
+        <v>0.239175</v>
+      </c>
+      <c r="D53">
+        <v>262.50185699999997</v>
+      </c>
+      <c r="E53">
+        <v>4.6580000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>0.23060800000000001</v>
+      </c>
+      <c r="D54">
+        <v>43.664351000000003</v>
+      </c>
+      <c r="E54">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>0.21362700000000001</v>
+      </c>
+      <c r="D55">
+        <v>425.28187700000001</v>
+      </c>
+      <c r="E55">
+        <v>2.5680000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56">
+        <v>0.21126400000000001</v>
+      </c>
+      <c r="D56">
+        <v>553.86829399999999</v>
+      </c>
+      <c r="E56">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57">
+        <v>0.20574999999999999</v>
+      </c>
+      <c r="D57">
+        <v>251.39915400000001</v>
+      </c>
+      <c r="E57">
+        <v>4.1840000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58">
+        <v>0.20433699999999999</v>
+      </c>
+      <c r="D58">
+        <v>102.61577800000001</v>
+      </c>
+      <c r="E58">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59">
+        <v>0.19483200000000001</v>
+      </c>
+      <c r="D59">
+        <v>114.355557</v>
+      </c>
+      <c r="E59">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60">
+        <v>0.166629</v>
+      </c>
+      <c r="D60">
+        <v>63.571399</v>
+      </c>
+      <c r="E60">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61">
+        <v>0.155496</v>
+      </c>
+      <c r="D61">
+        <v>42.442194000000001</v>
+      </c>
+      <c r="E61">
+        <v>18.73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62">
+        <v>0.15130199999999999</v>
+      </c>
+      <c r="D62">
+        <v>70</v>
+      </c>
+      <c r="E62">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" t="s">
         <v>86</v>
       </c>
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="2">
-        <v>2621406</v>
-      </c>
-      <c r="D42">
-        <v>73.327611000000005</v>
-      </c>
-      <c r="E42">
-        <v>16615</v>
+      <c r="C63">
+        <v>0.150176</v>
+      </c>
+      <c r="D63">
+        <v>36.299954</v>
+      </c>
+      <c r="E63">
+        <v>21.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64">
+        <v>0.14669499999999999</v>
+      </c>
+      <c r="D64">
+        <v>277.14328499999999</v>
+      </c>
+      <c r="E64">
+        <v>2.706</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65">
+        <v>0.14526800000000001</v>
+      </c>
+      <c r="D65">
+        <v>19.431010000000001</v>
+      </c>
+      <c r="E65">
+        <v>38.22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66">
+        <v>0.13572000000000001</v>
+      </c>
+      <c r="D66">
+        <v>324.52673399999998</v>
+      </c>
+      <c r="E66">
+        <v>2.1379999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67">
+        <v>0.13353499999999999</v>
+      </c>
+      <c r="D67">
+        <v>16.569600000000001</v>
+      </c>
+      <c r="E67">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68">
+        <v>0.12806500000000001</v>
+      </c>
+      <c r="D68">
+        <v>32.883367</v>
+      </c>
+      <c r="E68">
+        <v>19.91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69">
+        <v>0.127555</v>
+      </c>
+      <c r="D69">
+        <v>40.756224000000003</v>
+      </c>
+      <c r="E69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70">
+        <v>0.12523500000000001</v>
+      </c>
+      <c r="D70">
+        <v>160.300365</v>
+      </c>
+      <c r="E70">
+        <v>3.9940000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>223</v>
+      </c>
+      <c r="C71">
+        <v>0.116494</v>
+      </c>
+      <c r="D71">
+        <v>209.406871</v>
+      </c>
+      <c r="E71">
+        <v>2.8439999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72">
+        <v>0.106446</v>
+      </c>
+      <c r="D72">
+        <v>30.469396</v>
+      </c>
+      <c r="E72">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73">
+        <v>9.5446000000000003E-2</v>
+      </c>
+      <c r="D73">
+        <v>91.375951999999998</v>
+      </c>
+      <c r="E73">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74">
+        <v>9.4675999999999996E-2</v>
+      </c>
+      <c r="D74">
+        <v>165.191216</v>
+      </c>
+      <c r="E74">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75">
+        <v>9.3659999999999993E-2</v>
+      </c>
+      <c r="D75">
+        <v>76.856526000000002</v>
+      </c>
+      <c r="E75">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76">
+        <v>9.3479999999999994E-2</v>
+      </c>
+      <c r="D76">
+        <v>57.786605999999999</v>
+      </c>
+      <c r="E76">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77">
+        <v>9.1494000000000006E-2</v>
+      </c>
+      <c r="D77">
+        <v>12.797311000000001</v>
+      </c>
+      <c r="E77">
+        <v>36.549999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78">
+        <v>8.9230000000000004E-2</v>
+      </c>
+      <c r="D78">
+        <v>8.4553989999999999</v>
+      </c>
+      <c r="E78">
+        <v>53.95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79">
+        <v>8.8495000000000004E-2</v>
+      </c>
+      <c r="D79">
+        <v>35.707422000000001</v>
+      </c>
+      <c r="E79">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80">
+        <v>8.6046999999999998E-2</v>
+      </c>
+      <c r="D80">
+        <v>13.833325</v>
+      </c>
+      <c r="E80">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>8.3880999999999997E-2</v>
+      </c>
+      <c r="D81">
+        <v>25.586100999999999</v>
+      </c>
+      <c r="E81">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82">
+        <v>7.9446000000000003E-2</v>
+      </c>
+      <c r="D82">
+        <v>45.737648</v>
+      </c>
+      <c r="E82">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83">
+        <v>7.7357999999999996E-2</v>
+      </c>
+      <c r="D83">
+        <v>11.590728</v>
+      </c>
+      <c r="E83">
+        <v>34.119999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84">
+        <v>7.6208999999999999E-2</v>
+      </c>
+      <c r="D84">
+        <v>18.587987999999999</v>
+      </c>
+      <c r="E84">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85">
+        <v>7.5454999999999994E-2</v>
+      </c>
+      <c r="D85">
+        <v>37.781168000000001</v>
+      </c>
+      <c r="E85">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86">
+        <v>6.8002000000000007E-2</v>
+      </c>
+      <c r="D86">
+        <v>207.427167</v>
+      </c>
+      <c r="E86">
+        <v>1.6759999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87">
+        <v>6.7904000000000006E-2</v>
+      </c>
+      <c r="D87">
+        <v>27.442391000000001</v>
+      </c>
+      <c r="E87">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88">
+        <v>6.7426E-2</v>
+      </c>
+      <c r="D88">
+        <v>13.412474</v>
+      </c>
+      <c r="E88">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>229</v>
+      </c>
+      <c r="C89">
+        <v>6.6175999999999999E-2</v>
+      </c>
+      <c r="D89">
+        <v>704.81889100000001</v>
+      </c>
+      <c r="E89">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90">
+        <v>6.6156999999999994E-2</v>
+      </c>
+      <c r="D90">
+        <v>551.19731100000001</v>
+      </c>
+      <c r="E90">
+        <v>0.61360000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91">
+        <v>6.5443000000000001E-2</v>
+      </c>
+      <c r="D91">
+        <v>40.553173999999999</v>
+      </c>
+      <c r="E91">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92">
+        <v>6.4688999999999997E-2</v>
+      </c>
+      <c r="D92">
+        <v>482.78711399999997</v>
+      </c>
+      <c r="E92">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93">
+        <v>6.3783000000000006E-2</v>
+      </c>
+      <c r="D93">
+        <v>482.00350600000002</v>
+      </c>
+      <c r="E93">
+        <v>0.67649999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94">
+        <v>6.2835000000000002E-2</v>
+      </c>
+      <c r="D94">
+        <v>11.371052000000001</v>
+      </c>
+      <c r="E94">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95">
+        <v>6.1955999999999997E-2</v>
+      </c>
+      <c r="D95">
+        <v>18.819770999999999</v>
+      </c>
+      <c r="E95">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" t="s">
+        <v>231</v>
+      </c>
+      <c r="C96">
+        <v>6.1898000000000002E-2</v>
+      </c>
+      <c r="D96">
+        <v>40.673366000000001</v>
+      </c>
+      <c r="E96">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97">
+        <v>5.9230999999999999E-2</v>
+      </c>
+      <c r="D97">
+        <v>29.228546000000001</v>
+      </c>
+      <c r="E97">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98">
+        <v>5.8508999999999999E-2</v>
+      </c>
+      <c r="D98">
+        <v>14.243460000000001</v>
+      </c>
+      <c r="E98">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>234</v>
+      </c>
+      <c r="B99" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99">
+        <v>5.6427999999999999E-2</v>
+      </c>
+      <c r="D99">
+        <v>32.781286000000001</v>
+      </c>
+      <c r="E99">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100">
+        <v>5.2727999999999997E-2</v>
+      </c>
+      <c r="D100">
+        <v>272.28351199999997</v>
+      </c>
+      <c r="E100">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101">
+        <v>5.1048000000000003E-2</v>
+      </c>
+      <c r="D101">
+        <v>120.264064</v>
+      </c>
+      <c r="E101">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102">
+        <v>5.0813999999999998E-2</v>
+      </c>
+      <c r="D102">
+        <v>65.188892999999993</v>
+      </c>
+      <c r="E102">
+        <v>3.9849999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>188</v>
+      </c>
+      <c r="B103" t="s">
+        <v>239</v>
+      </c>
+      <c r="C103">
+        <v>5.0233E-2</v>
+      </c>
+      <c r="D103">
+        <v>72.853256000000002</v>
+      </c>
+      <c r="E103">
+        <v>3.5249999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104">
+        <v>4.7064000000000002E-2</v>
+      </c>
+      <c r="D104">
+        <v>3.388817</v>
+      </c>
+      <c r="E104">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105">
+        <v>4.4657000000000002E-2</v>
+      </c>
+      <c r="D105">
+        <v>157.88469900000001</v>
+      </c>
+      <c r="E105">
+        <v>1.446</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106">
+        <v>4.1244999999999997E-2</v>
+      </c>
+      <c r="D106">
+        <v>18.146177000000002</v>
+      </c>
+      <c r="E106">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107">
+        <v>4.0114999999999998E-2</v>
+      </c>
+      <c r="D107">
+        <v>7.887664</v>
+      </c>
+      <c r="E107">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>243</v>
+      </c>
+      <c r="B108" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108">
+        <v>3.9265000000000001E-2</v>
+      </c>
+      <c r="D108">
+        <v>73.529798999999997</v>
+      </c>
+      <c r="E108">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>245</v>
+      </c>
+      <c r="B109" t="s">
+        <v>246</v>
+      </c>
+      <c r="C109">
+        <v>3.7242999999999998E-2</v>
+      </c>
+      <c r="D109">
+        <v>8.4620529999999992</v>
+      </c>
+      <c r="E109">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110">
+        <v>3.6409999999999998E-2</v>
+      </c>
+      <c r="D110">
+        <v>31.656264</v>
+      </c>
+      <c r="E110">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>191</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111">
+        <v>3.5737999999999999E-2</v>
+      </c>
+      <c r="D111">
+        <v>11.032909</v>
+      </c>
+      <c r="E111">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112">
+        <v>3.4549999999999997E-2</v>
+      </c>
+      <c r="D112">
+        <v>31.097006</v>
+      </c>
+      <c r="E112">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113">
+        <v>3.3551999999999998E-2</v>
+      </c>
+      <c r="D113">
+        <v>12.096602000000001</v>
+      </c>
+      <c r="E113">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>165</v>
+      </c>
+      <c r="B114" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114">
+        <v>3.2766999999999998E-2</v>
+      </c>
+      <c r="D114">
+        <v>16.552959999999999</v>
+      </c>
+      <c r="E114">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115">
+        <v>3.2634000000000003E-2</v>
+      </c>
+      <c r="D115">
+        <v>47.531013000000002</v>
+      </c>
+      <c r="E115">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116">
+        <v>3.0422000000000001E-2</v>
+      </c>
+      <c r="D116">
+        <v>5.7178639999999996</v>
+      </c>
+      <c r="E116">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117">
+        <v>3.0345E-2</v>
+      </c>
+      <c r="D117">
+        <v>9.5172310000000007</v>
+      </c>
+      <c r="E117">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>253</v>
+      </c>
+      <c r="B118" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118">
+        <v>3.0231000000000001E-2</v>
+      </c>
+      <c r="D118">
+        <v>109.610021</v>
+      </c>
+      <c r="E118">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>195</v>
+      </c>
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119">
+        <v>2.9943999999999998E-2</v>
+      </c>
+      <c r="D119">
+        <v>6.210331</v>
+      </c>
+      <c r="E119">
+        <v>24.65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" t="s">
+        <v>104</v>
+      </c>
+      <c r="C120">
+        <v>2.9132999999999999E-2</v>
+      </c>
+      <c r="D120">
+        <v>27.079401000000001</v>
+      </c>
+      <c r="E120">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121">
+        <v>2.8407999999999999E-2</v>
+      </c>
+      <c r="D121">
+        <v>4.3823559999999997</v>
+      </c>
+      <c r="E121">
+        <v>33.14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>255</v>
+      </c>
+      <c r="B122" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122">
+        <v>2.8015999999999999E-2</v>
+      </c>
+      <c r="D122">
+        <v>66.772011000000006</v>
+      </c>
+      <c r="E122">
+        <v>2.145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123">
+        <v>2.7476E-2</v>
+      </c>
+      <c r="D123">
+        <v>19.728535999999998</v>
+      </c>
+      <c r="E123">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>259</v>
+      </c>
+      <c r="B124" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124">
+        <v>2.6054999999999998E-2</v>
+      </c>
+      <c r="D124">
+        <v>4.7402290000000002</v>
+      </c>
+      <c r="E124">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>261</v>
+      </c>
+      <c r="B125" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125">
+        <v>2.5937999999999999E-2</v>
+      </c>
+      <c r="D125">
+        <v>26.206319000000001</v>
+      </c>
+      <c r="E125">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>263</v>
+      </c>
+      <c r="B126" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126">
+        <v>2.5073999999999999E-2</v>
+      </c>
+      <c r="D126">
+        <v>15.116058000000001</v>
+      </c>
+      <c r="E126">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>265</v>
+      </c>
+      <c r="B127" t="s">
+        <v>266</v>
+      </c>
+      <c r="C127">
+        <v>2.4213999999999999E-2</v>
+      </c>
+      <c r="D127">
+        <v>10.272831999999999</v>
+      </c>
+      <c r="E127">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>267</v>
+      </c>
+      <c r="B128" t="s">
+        <v>268</v>
+      </c>
+      <c r="C128">
+        <v>2.2841E-2</v>
+      </c>
+      <c r="D128">
+        <v>56.683197</v>
+      </c>
+      <c r="E128">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129">
+        <v>2.2428E-2</v>
+      </c>
+      <c r="D129">
+        <v>11.943505999999999</v>
+      </c>
+      <c r="E129">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" t="s">
+        <v>272</v>
+      </c>
+      <c r="C130">
+        <v>2.1283E-2</v>
+      </c>
+      <c r="D130">
+        <v>81.807139000000006</v>
+      </c>
+      <c r="E130">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>273</v>
+      </c>
+      <c r="B131" t="s">
+        <v>274</v>
+      </c>
+      <c r="C131">
+        <v>2.0865000000000002E-2</v>
+      </c>
+      <c r="D131">
+        <v>9.9687839999999994</v>
+      </c>
+      <c r="E131">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" t="s">
+        <v>276</v>
+      </c>
+      <c r="C132">
+        <v>1.9605000000000001E-2</v>
+      </c>
+      <c r="D132">
+        <v>15.959315999999999</v>
+      </c>
+      <c r="E132">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>277</v>
+      </c>
+      <c r="B133" t="s">
+        <v>278</v>
+      </c>
+      <c r="C133">
+        <v>1.9081000000000001E-2</v>
+      </c>
+      <c r="D133">
+        <v>91.167310000000001</v>
+      </c>
+      <c r="E133">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>279</v>
+      </c>
+      <c r="B134" t="s">
+        <v>280</v>
+      </c>
+      <c r="C134">
+        <v>1.9074000000000001E-2</v>
+      </c>
+      <c r="D134">
+        <v>7.6782839999999997</v>
+      </c>
+      <c r="E134">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>281</v>
+      </c>
+      <c r="B135" t="s">
+        <v>282</v>
+      </c>
+      <c r="C135">
+        <v>1.8977999999999998E-2</v>
+      </c>
+      <c r="D135">
+        <v>116.055037</v>
+      </c>
+      <c r="E135">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>197</v>
+      </c>
+      <c r="B136" t="s">
+        <v>283</v>
+      </c>
+      <c r="C136">
+        <v>1.8713E-2</v>
+      </c>
+      <c r="D136">
+        <v>151.13445200000001</v>
+      </c>
+      <c r="E136">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>284</v>
+      </c>
+      <c r="B137" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137">
+        <v>1.8488999999999998E-2</v>
+      </c>
+      <c r="D137">
+        <v>969.46256100000005</v>
+      </c>
+      <c r="E137">
+        <v>9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>187</v>
+      </c>
+      <c r="B138" t="s">
+        <v>111</v>
+      </c>
+      <c r="C138">
+        <v>1.8041000000000001E-2</v>
+      </c>
+      <c r="D138">
+        <v>44.664499999999997</v>
+      </c>
+      <c r="E138">
+        <v>2.0649999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>286</v>
+      </c>
+      <c r="B139" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139">
+        <v>1.7347000000000001E-2</v>
+      </c>
+      <c r="D139">
+        <v>4.6044739999999997</v>
+      </c>
+      <c r="E139">
+        <v>19.260000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140">
+        <v>1.7201999999999999E-2</v>
+      </c>
+      <c r="D140">
+        <v>4.2898630000000004</v>
+      </c>
+      <c r="E140">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>290</v>
+      </c>
+      <c r="B141" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141">
+        <v>1.6851999999999999E-2</v>
+      </c>
+      <c r="D141">
+        <v>71.202388999999997</v>
+      </c>
+      <c r="E141">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>292</v>
+      </c>
+      <c r="B142" t="s">
+        <v>293</v>
+      </c>
+      <c r="C142">
+        <v>1.6733999999999999E-2</v>
+      </c>
+      <c r="D142">
+        <v>13.753728000000001</v>
+      </c>
+      <c r="E142">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143" t="s">
+        <v>295</v>
+      </c>
+      <c r="C143">
+        <v>1.6375000000000001E-2</v>
+      </c>
+      <c r="D143">
+        <v>30.607783999999999</v>
+      </c>
+      <c r="E143">
+        <v>2.7349999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>296</v>
+      </c>
+      <c r="B144" t="s">
+        <v>297</v>
+      </c>
+      <c r="C144">
+        <v>1.6181999999999998E-2</v>
+      </c>
+      <c r="D144">
+        <v>7.760548</v>
+      </c>
+      <c r="E144">
+        <v>10.66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>298</v>
+      </c>
+      <c r="B145" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145">
+        <v>1.6146000000000001E-2</v>
+      </c>
+      <c r="D145">
+        <v>157.22610599999999</v>
+      </c>
+      <c r="E145">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>300</v>
+      </c>
+      <c r="B146" t="s">
+        <v>301</v>
+      </c>
+      <c r="C146">
+        <v>1.6018000000000001E-2</v>
+      </c>
+      <c r="D146">
+        <v>120.424521</v>
+      </c>
+      <c r="E146">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>189</v>
+      </c>
+      <c r="B147" t="s">
+        <v>112</v>
+      </c>
+      <c r="C147">
+        <v>1.5976000000000001E-2</v>
+      </c>
+      <c r="D147">
+        <v>4367.6853460000002</v>
+      </c>
+      <c r="E147">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>190</v>
+      </c>
+      <c r="B148" t="s">
+        <v>113</v>
+      </c>
+      <c r="C148">
+        <v>1.5376000000000001E-2</v>
+      </c>
+      <c r="D148">
+        <v>21.477050999999999</v>
+      </c>
+      <c r="E148">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>302</v>
+      </c>
+      <c r="B149" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149">
+        <v>1.4655E-2</v>
+      </c>
+      <c r="D149">
+        <v>199.786225</v>
+      </c>
+      <c r="E149">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>304</v>
+      </c>
+      <c r="B150" t="s">
+        <v>305</v>
+      </c>
+      <c r="C150">
+        <v>1.4159E-2</v>
+      </c>
+      <c r="D150">
+        <v>18.607690999999999</v>
+      </c>
+      <c r="E150">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>306</v>
+      </c>
+      <c r="B151" t="s">
+        <v>307</v>
+      </c>
+      <c r="C151">
+        <v>1.4128E-2</v>
+      </c>
+      <c r="D151">
+        <v>10.7</v>
+      </c>
+      <c r="E151">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>308</v>
+      </c>
+      <c r="B152" t="s">
+        <v>309</v>
+      </c>
+      <c r="C152">
+        <v>1.4101000000000001E-2</v>
+      </c>
+      <c r="D152">
+        <v>6.3236100000000004</v>
+      </c>
+      <c r="E152">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>310</v>
+      </c>
+      <c r="B153" t="s">
+        <v>311</v>
+      </c>
+      <c r="C153">
+        <v>1.4067E-2</v>
+      </c>
+      <c r="D153">
+        <v>6.5377929999999997</v>
+      </c>
+      <c r="E153">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>312</v>
+      </c>
+      <c r="B154" t="s">
+        <v>313</v>
+      </c>
+      <c r="C154">
+        <v>1.3892E-2</v>
+      </c>
+      <c r="D154">
+        <v>16.364595999999999</v>
+      </c>
+      <c r="E154">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155" t="s">
+        <v>315</v>
+      </c>
+      <c r="C155">
+        <v>1.3877E-2</v>
+      </c>
+      <c r="D155">
+        <v>6.2782520000000002</v>
+      </c>
+      <c r="E155">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>316</v>
+      </c>
+      <c r="B156" t="s">
+        <v>317</v>
+      </c>
+      <c r="C156">
+        <v>1.3172E-2</v>
+      </c>
+      <c r="D156">
+        <v>288.39229599999999</v>
+      </c>
+      <c r="E156">
+        <v>0.23350000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>198</v>
+      </c>
+      <c r="B157" t="s">
+        <v>318</v>
+      </c>
+      <c r="C157">
+        <v>1.3103E-2</v>
+      </c>
+      <c r="D157">
+        <v>14.852838999999999</v>
+      </c>
+      <c r="E157">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>319</v>
+      </c>
+      <c r="B158" t="s">
+        <v>320</v>
+      </c>
+      <c r="C158">
+        <v>1.289E-2</v>
+      </c>
+      <c r="D158">
+        <v>4.7069000000000001</v>
+      </c>
+      <c r="E158">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>321</v>
+      </c>
+      <c r="B159" t="s">
+        <v>322</v>
+      </c>
+      <c r="C159">
+        <v>1.213E-2</v>
+      </c>
+      <c r="D159">
+        <v>46.072071999999999</v>
+      </c>
+      <c r="E159">
+        <v>1.3460000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>323</v>
+      </c>
+      <c r="B160" t="s">
+        <v>324</v>
+      </c>
+      <c r="C160">
+        <v>1.2056000000000001E-2</v>
+      </c>
+      <c r="D160">
+        <v>17.049223999999999</v>
+      </c>
+      <c r="E160">
+        <v>3.6150000000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>325</v>
+      </c>
+      <c r="B161" t="s">
+        <v>326</v>
+      </c>
+      <c r="C161">
+        <v>1.1472E-2</v>
+      </c>
+      <c r="D161">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="E161">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>327</v>
+      </c>
+      <c r="B162" t="s">
+        <v>328</v>
+      </c>
+      <c r="C162">
+        <v>1.0525E-2</v>
+      </c>
+      <c r="D162">
+        <v>23.192757</v>
+      </c>
+      <c r="E162">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>329</v>
+      </c>
+      <c r="B163" t="s">
+        <v>330</v>
+      </c>
+      <c r="C163">
+        <v>1.0075000000000001E-2</v>
+      </c>
+      <c r="D163">
+        <v>25.309564999999999</v>
+      </c>
+      <c r="E163">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>196</v>
+      </c>
+      <c r="B164" t="s">
+        <v>118</v>
+      </c>
+      <c r="C164">
+        <v>9.9740000000000002E-3</v>
+      </c>
+      <c r="D164">
+        <v>381.07664799999998</v>
+      </c>
+      <c r="E164">
+        <v>0.1338</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" t="s">
+        <v>332</v>
+      </c>
+      <c r="C165">
+        <v>9.4859999999999996E-3</v>
+      </c>
+      <c r="D165">
+        <v>22.450541000000001</v>
+      </c>
+      <c r="E165">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>333</v>
+      </c>
+      <c r="B166" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166">
+        <v>9.0819999999999998E-3</v>
+      </c>
+      <c r="D166">
+        <v>1.7324729999999999</v>
+      </c>
+      <c r="E166">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" t="s">
+        <v>336</v>
+      </c>
+      <c r="C167">
+        <v>8.2970000000000006E-3</v>
+      </c>
+      <c r="D167">
+        <v>46.004869999999997</v>
+      </c>
+      <c r="E167">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168">
+        <v>8.1810000000000008E-3</v>
+      </c>
+      <c r="D168">
+        <v>2.9558010000000001</v>
+      </c>
+      <c r="E168">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>339</v>
+      </c>
+      <c r="B169" t="s">
+        <v>340</v>
+      </c>
+      <c r="C169">
+        <v>8.0450000000000001E-3</v>
+      </c>
+      <c r="D169">
+        <v>108.80309</v>
+      </c>
+      <c r="E169">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" t="s">
+        <v>342</v>
+      </c>
+      <c r="C170">
+        <v>7.9570000000000005E-3</v>
+      </c>
+      <c r="D170">
+        <v>30.267679999999999</v>
+      </c>
+      <c r="E170">
+        <v>1.3440000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>343</v>
+      </c>
+      <c r="B171" t="s">
+        <v>344</v>
+      </c>
+      <c r="C171">
+        <v>7.672E-3</v>
+      </c>
+      <c r="D171">
+        <v>12.068882</v>
+      </c>
+      <c r="E171">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" t="s">
+        <v>346</v>
+      </c>
+      <c r="C172">
+        <v>7.5189999999999996E-3</v>
+      </c>
+      <c r="D172">
+        <v>32.993749999999999</v>
+      </c>
+      <c r="E172">
+        <v>1.165</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>347</v>
+      </c>
+      <c r="B173" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173">
+        <v>7.0860000000000003E-3</v>
+      </c>
+      <c r="D173">
+        <v>311.76937600000002</v>
+      </c>
+      <c r="E173">
+        <v>0.1162</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>349</v>
+      </c>
+      <c r="B174" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174">
+        <v>6.8180000000000003E-3</v>
+      </c>
+      <c r="D174">
+        <v>1.3405659999999999</v>
+      </c>
+      <c r="E174">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>351</v>
+      </c>
+      <c r="B175" t="s">
+        <v>352</v>
+      </c>
+      <c r="C175">
+        <v>5.4790000000000004E-3</v>
+      </c>
+      <c r="D175">
+        <v>56.015594</v>
+      </c>
+      <c r="E175">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>353</v>
+      </c>
+      <c r="B176" t="s">
+        <v>354</v>
+      </c>
+      <c r="C176">
+        <v>5.3740000000000003E-3</v>
+      </c>
+      <c r="D176">
+        <v>83.000895</v>
+      </c>
+      <c r="E176">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>355</v>
+      </c>
+      <c r="B177" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177">
+        <v>5.0309999999999999E-3</v>
+      </c>
+      <c r="D177">
+        <v>22.562476</v>
+      </c>
+      <c r="E177">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178">
+        <v>4.9090000000000002E-3</v>
+      </c>
+      <c r="D178">
+        <v>8.3368719999999996</v>
+      </c>
+      <c r="E178">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>359</v>
+      </c>
+      <c r="B179" t="s">
+        <v>360</v>
+      </c>
+      <c r="C179">
+        <v>4.8040000000000001E-3</v>
+      </c>
+      <c r="D179">
+        <v>84.679708000000005</v>
+      </c>
+      <c r="E179">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>361</v>
+      </c>
+      <c r="B180" t="s">
+        <v>362</v>
+      </c>
+      <c r="C180">
+        <v>4.7949999999999998E-3</v>
+      </c>
+      <c r="D180">
+        <v>11.192785000000001</v>
+      </c>
+      <c r="E180">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" t="s">
+        <v>364</v>
+      </c>
+      <c r="C181">
+        <v>4.666E-3</v>
+      </c>
+      <c r="D181">
+        <v>12.588996</v>
+      </c>
+      <c r="E181">
+        <v>1.895</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" t="s">
+        <v>366</v>
+      </c>
+      <c r="C182">
+        <v>4.5760000000000002E-3</v>
+      </c>
+      <c r="D182">
+        <v>258.75564100000003</v>
+      </c>
+      <c r="E182">
+        <v>9.0399999999999994E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>367</v>
+      </c>
+      <c r="B183" t="s">
+        <v>368</v>
+      </c>
+      <c r="C183">
+        <v>4.4819999999999999E-3</v>
+      </c>
+      <c r="D183">
+        <v>5.0698600000000003</v>
+      </c>
+      <c r="E183">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>369</v>
+      </c>
+      <c r="B184" t="s">
+        <v>370</v>
+      </c>
+      <c r="C184">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D184">
+        <v>81.208917</v>
+      </c>
+      <c r="E184">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>371</v>
+      </c>
+      <c r="B185" t="s">
+        <v>372</v>
+      </c>
+      <c r="C185">
+        <v>4.3410000000000002E-3</v>
+      </c>
+      <c r="D185">
+        <v>21.973448999999999</v>
+      </c>
+      <c r="E185">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>373</v>
+      </c>
+      <c r="B186" t="s">
+        <v>374</v>
+      </c>
+      <c r="C186">
+        <v>4.3189999999999999E-3</v>
+      </c>
+      <c r="D186">
+        <v>56.1858</v>
+      </c>
+      <c r="E186">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="D187">
+        <v>18.739144</v>
+      </c>
+      <c r="E187">
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>377</v>
+      </c>
+      <c r="B188" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188">
+        <v>3.496E-3</v>
+      </c>
+      <c r="D188">
+        <v>9.5363179999999996</v>
+      </c>
+      <c r="E188">
+        <v>1.8740000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>379</v>
+      </c>
+      <c r="B189" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189">
+        <v>3.241E-3</v>
+      </c>
+      <c r="D189">
+        <v>9.6626169999999991</v>
+      </c>
+      <c r="E189">
+        <v>1.7150000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>381</v>
+      </c>
+      <c r="B190" t="s">
+        <v>382</v>
+      </c>
+      <c r="C190">
+        <v>3.0669999999999998E-3</v>
+      </c>
+      <c r="D190">
+        <v>4.2835570000000001</v>
+      </c>
+      <c r="E190">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>383</v>
+      </c>
+      <c r="B191" t="s">
+        <v>384</v>
+      </c>
+      <c r="C191">
+        <v>3.0509999999999999E-3</v>
+      </c>
+      <c r="D191">
+        <v>6.8717649999999999</v>
+      </c>
+      <c r="E191">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>385</v>
+      </c>
+      <c r="B192" t="s">
+        <v>386</v>
+      </c>
+      <c r="C192">
+        <v>2.9870000000000001E-3</v>
+      </c>
+      <c r="D192">
+        <v>25.362663000000001</v>
+      </c>
+      <c r="E192">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>387</v>
+      </c>
+      <c r="B193" t="s">
+        <v>388</v>
+      </c>
+      <c r="C193">
+        <v>2.774E-3</v>
+      </c>
+      <c r="D193">
+        <v>30.891128999999999</v>
+      </c>
+      <c r="E193">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" t="s">
+        <v>390</v>
+      </c>
+      <c r="C194">
+        <v>2.7680000000000001E-3</v>
+      </c>
+      <c r="D194">
+        <v>17.089244999999998</v>
+      </c>
+      <c r="E194">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>391</v>
+      </c>
+      <c r="B195" t="s">
+        <v>392</v>
+      </c>
+      <c r="C195">
+        <v>2.725E-3</v>
+      </c>
+      <c r="D195">
+        <v>57.564289000000002</v>
+      </c>
+      <c r="E195">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196" t="s">
+        <v>394</v>
+      </c>
+      <c r="C196">
+        <v>2.5709999999999999E-3</v>
+      </c>
+      <c r="D196">
+        <v>3.2367520000000001</v>
+      </c>
+      <c r="E196">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>395</v>
+      </c>
+      <c r="B197" t="s">
+        <v>396</v>
+      </c>
+      <c r="C197">
+        <v>2.5360000000000001E-3</v>
+      </c>
+      <c r="D197">
+        <v>3.7261289999999998</v>
+      </c>
+      <c r="E197">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>397</v>
+      </c>
+      <c r="B198" t="s">
+        <v>398</v>
+      </c>
+      <c r="C198">
+        <v>2.026E-3</v>
+      </c>
+      <c r="D198">
+        <v>6.5538999999999996</v>
+      </c>
+      <c r="E198">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>399</v>
+      </c>
+      <c r="B199" t="s">
+        <v>400</v>
+      </c>
+      <c r="C199">
+        <v>1.91E-3</v>
+      </c>
+      <c r="D199">
+        <v>2.822632</v>
+      </c>
+      <c r="E199">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>401</v>
+      </c>
+      <c r="B200" t="s">
+        <v>402</v>
+      </c>
+      <c r="C200">
+        <v>1.8749999999999999E-3</v>
+      </c>
+      <c r="D200">
+        <v>12.713104</v>
+      </c>
+      <c r="E200">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>403</v>
+      </c>
+      <c r="B201" t="s">
+        <v>404</v>
+      </c>
+      <c r="C201">
+        <v>1.8209999999999999E-3</v>
+      </c>
+      <c r="D201">
+        <v>25.436259</v>
+      </c>
+      <c r="E201">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>405</v>
+      </c>
+      <c r="B202" t="s">
+        <v>406</v>
+      </c>
+      <c r="C202">
+        <v>1.552E-3</v>
+      </c>
+      <c r="D202">
+        <v>3.4792510000000001</v>
+      </c>
+      <c r="E202">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>407</v>
+      </c>
+      <c r="B203" t="s">
+        <v>408</v>
+      </c>
+      <c r="C203">
+        <v>1.439E-3</v>
+      </c>
+      <c r="D203">
+        <v>2.7251150000000002</v>
+      </c>
+      <c r="E203">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>409</v>
+      </c>
+      <c r="B204" t="s">
+        <v>410</v>
+      </c>
+      <c r="C204">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D204">
+        <v>89.228973999999994</v>
+      </c>
+      <c r="E204">
+        <v>8.0199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" t="s">
+        <v>412</v>
+      </c>
+      <c r="C205">
+        <v>1.2489999999999999E-3</v>
+      </c>
+      <c r="D205">
+        <v>170.220146</v>
+      </c>
+      <c r="E205">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>413</v>
+      </c>
+      <c r="B206" t="s">
+        <v>414</v>
+      </c>
+      <c r="C206">
+        <v>1.201E-3</v>
+      </c>
+      <c r="D206">
+        <v>14.151515</v>
+      </c>
+      <c r="E206">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>415</v>
+      </c>
+      <c r="B207" t="s">
+        <v>416</v>
+      </c>
+      <c r="C207">
+        <v>9.5399999999999999E-4</v>
+      </c>
+      <c r="D207">
+        <v>1.3693299999999999</v>
+      </c>
+      <c r="E207">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>417</v>
+      </c>
+      <c r="B208" t="s">
+        <v>418</v>
+      </c>
+      <c r="C208">
+        <v>9.2900000000000003E-4</v>
+      </c>
+      <c r="D208">
+        <v>2.4474840000000002</v>
+      </c>
+      <c r="E208">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>419</v>
+      </c>
+      <c r="B209" t="s">
+        <v>420</v>
+      </c>
+      <c r="C209">
+        <v>7.6499999999999995E-4</v>
+      </c>
+      <c r="D209">
+        <v>166.39649199999999</v>
+      </c>
+      <c r="E209">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>421</v>
+      </c>
+      <c r="B210" t="s">
+        <v>422</v>
+      </c>
+      <c r="C210">
+        <v>7.6099999999999996E-4</v>
+      </c>
+      <c r="D210">
+        <v>43.117457000000002</v>
+      </c>
+      <c r="E210">
+        <v>9.0200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>423</v>
+      </c>
+      <c r="B211" t="s">
+        <v>424</v>
+      </c>
+      <c r="C211">
+        <v>6.5899999999999997E-4</v>
+      </c>
+      <c r="D211">
+        <v>1.6669609999999999</v>
+      </c>
+      <c r="E211">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>425</v>
+      </c>
+      <c r="B212" t="s">
+        <v>426</v>
+      </c>
+      <c r="C212">
+        <v>6.2100000000000002E-4</v>
+      </c>
+      <c r="D212">
+        <v>10.840142</v>
+      </c>
+      <c r="E212">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>427</v>
+      </c>
+      <c r="B213" t="s">
+        <v>428</v>
+      </c>
+      <c r="C213">
+        <v>5.6899999999999995E-4</v>
+      </c>
+      <c r="D213">
+        <v>1.000483</v>
+      </c>
+      <c r="E213">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>429</v>
+      </c>
+      <c r="B214" t="s">
+        <v>430</v>
+      </c>
+      <c r="C214">
+        <v>5.3300000000000005E-4</v>
+      </c>
+      <c r="D214">
+        <v>36.248040000000003</v>
+      </c>
+      <c r="E214">
+        <v>7.5200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>431</v>
+      </c>
+      <c r="B215" t="s">
+        <v>432</v>
+      </c>
+      <c r="C215">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="D215">
+        <v>21.322268000000001</v>
+      </c>
+      <c r="E215">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>433</v>
+      </c>
+      <c r="B216" t="s">
+        <v>434</v>
+      </c>
+      <c r="C216">
+        <v>5.0199999999999995E-4</v>
+      </c>
+      <c r="D216">
+        <v>42.750328000000003</v>
+      </c>
+      <c r="E216">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>435</v>
+      </c>
+      <c r="B217" t="s">
+        <v>436</v>
+      </c>
+      <c r="C217">
+        <v>3.3199999999999999E-4</v>
+      </c>
+      <c r="D217">
+        <v>1.8501590000000001</v>
+      </c>
+      <c r="E217">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>437</v>
+      </c>
+      <c r="B218" t="s">
+        <v>438</v>
+      </c>
+      <c r="C218">
+        <v>2.5799999999999998E-4</v>
+      </c>
+      <c r="D218">
+        <v>1.120868</v>
+      </c>
+      <c r="E218">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>439</v>
+      </c>
+      <c r="B219" t="s">
+        <v>440</v>
+      </c>
+      <c r="C219">
+        <v>1.94E-4</v>
+      </c>
+      <c r="D219">
+        <v>16.02928</v>
+      </c>
+      <c r="E219">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>441</v>
+      </c>
+      <c r="B220" t="s">
+        <v>442</v>
+      </c>
+      <c r="C220">
+        <v>1.15E-4</v>
+      </c>
+      <c r="D220">
+        <v>4.3684310000000002</v>
+      </c>
+      <c r="E220">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>443</v>
+      </c>
+      <c r="B221" t="s">
+        <v>444</v>
+      </c>
+      <c r="C221">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="D221">
+        <v>11.579113</v>
+      </c>
+      <c r="E221">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
